--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Habitat-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.1014006547709879</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1657711482722735</v>
+        <v>0.1657711482722736</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.06392765354431536</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02452500886939848</v>
+        <v>0.02440665836315492</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02197203408675973</v>
+        <v>0.02238519996865132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07085437426112896</v>
+        <v>0.07251445706435136</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07015921619151054</v>
+        <v>0.06960637144636177</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0791212848702869</v>
+        <v>0.0813282590988391</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1469518186504195</v>
+        <v>0.1465495612522369</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05196353378997171</v>
+        <v>0.05074199646100485</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05462521263498889</v>
+        <v>0.05442116324060179</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1137741016005312</v>
+        <v>0.1150980137026857</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05417543265808095</v>
+        <v>0.05350484974562605</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04980550343080877</v>
+        <v>0.04839613653553382</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1101172056872365</v>
+        <v>0.1118650854615294</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1144315308012818</v>
+        <v>0.11407837100418</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1262455503646486</v>
+        <v>0.1291625664663937</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1856880634340911</v>
+        <v>0.184662847524942</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07857325058559685</v>
+        <v>0.07906387739399617</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08241346120780664</v>
+        <v>0.08018054088666292</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1421999269982473</v>
+        <v>0.1432041446012294</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02323641684303048</v>
+        <v>0.0226491867840067</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01988440698223187</v>
+        <v>0.02076023446741985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05137263634457002</v>
+        <v>0.05115537739201196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07126512784495752</v>
+        <v>0.06938948049887349</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06660543570248946</v>
+        <v>0.06444380829463375</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1261263349622773</v>
+        <v>0.1260311370065734</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05072452483659018</v>
+        <v>0.05018087710221589</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04619007942075623</v>
+        <v>0.04585409386561998</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09288448488358166</v>
+        <v>0.09230863112307597</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04710035378837897</v>
+        <v>0.04578134624635746</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04038077913287469</v>
+        <v>0.04217494367054435</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07911017376009832</v>
+        <v>0.08007712922574538</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1056793880421569</v>
+        <v>0.1081063505106639</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1040715557451069</v>
+        <v>0.1008142639139564</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1586649986974848</v>
+        <v>0.1575468883330982</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07271777961867495</v>
+        <v>0.07124325362630957</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06723763142689503</v>
+        <v>0.06664775866559892</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1141701601857791</v>
+        <v>0.1136872024799753</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.0277645305431787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.06330365285025039</v>
+        <v>0.06330365285025037</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.08321830597014623</v>
@@ -873,7 +873,7 @@
         <v>0.07720173810992978</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.129104755259095</v>
+        <v>0.1291047552590949</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.06043511446566179</v>
@@ -882,7 +882,7 @@
         <v>0.05289056463148973</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.09639129525384095</v>
+        <v>0.09639129525384098</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02439571309623186</v>
+        <v>0.02551984336123543</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0168447050551189</v>
+        <v>0.0173446721001144</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04846456320573441</v>
+        <v>0.04810302950574594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06395770058857551</v>
+        <v>0.06517382053553623</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06044983097253858</v>
+        <v>0.05903701655175248</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.109925179371011</v>
+        <v>0.1092491428431138</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04896934250621614</v>
+        <v>0.04868714494188276</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04268574813219373</v>
+        <v>0.04228092538116651</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0831998405577478</v>
+        <v>0.08242553329682348</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05560561699925499</v>
+        <v>0.05476897569203135</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04324508960693317</v>
+        <v>0.04180056887051434</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08321689064132062</v>
+        <v>0.08268963287364287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1040145187360601</v>
+        <v>0.1036665889133229</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09766426199294197</v>
+        <v>0.09861503163152993</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1504755452652648</v>
+        <v>0.1495237589916217</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07511352432354239</v>
+        <v>0.07366036592570926</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06588178142798939</v>
+        <v>0.06503976431338503</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1100061273714136</v>
+        <v>0.1100159381044629</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02541937007131785</v>
+        <v>0.0247468109425805</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02364522572755738</v>
+        <v>0.02338315111894421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05520005957002908</v>
+        <v>0.0540032900107011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0872274378293779</v>
+        <v>0.08711610176179012</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08031514117423878</v>
+        <v>0.08153981764384571</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.146087739106507</v>
+        <v>0.1463819317333896</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06109898185201813</v>
+        <v>0.06188890455441351</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05814622302173821</v>
+        <v>0.05755493881331762</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1081401957258759</v>
+        <v>0.107425700175541</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04979006462076781</v>
+        <v>0.05165598103617846</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04939506932829386</v>
+        <v>0.05034567062546151</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08341455254541061</v>
+        <v>0.08469207891210345</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1288364475807812</v>
+        <v>0.1265071670829166</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1200653592423141</v>
+        <v>0.1189328409626402</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1834452597690911</v>
+        <v>0.1839004846991095</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0858973082063428</v>
+        <v>0.08629306951008228</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08221097317417919</v>
+        <v>0.08035801676559357</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1306706742170304</v>
+        <v>0.131151907733072</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.06106942337186406</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1111965556542035</v>
+        <v>0.1111965556542034</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0293191690276422</v>
+        <v>0.02966740725614496</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02568218575988533</v>
+        <v>0.02557694606081206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06207891310905875</v>
+        <v>0.06220729299400879</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08388368982408641</v>
+        <v>0.08331978283252692</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07941999833897577</v>
+        <v>0.08067549804217462</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1410658195489462</v>
+        <v>0.1409276098055865</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05835079454340338</v>
+        <v>0.05884709394503927</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05512866853029724</v>
+        <v>0.05564632527508136</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1049180189398286</v>
+        <v>0.1051150004062586</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04244112331054225</v>
+        <v>0.04280307451096236</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03763278333277601</v>
+        <v>0.03790416205872332</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07814568065289718</v>
+        <v>0.07787812515299075</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1040426853038572</v>
+        <v>0.1037574067795425</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1005827362362935</v>
+        <v>0.1008531427641344</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1597347323928012</v>
+        <v>0.1596251596370064</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07075360078314137</v>
+        <v>0.07100795998374958</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06760246055346841</v>
+        <v>0.06727032024133724</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1173852099869415</v>
+        <v>0.1174383778172652</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17253</v>
+        <v>17169</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14827</v>
+        <v>15106</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>48940</v>
+        <v>50086</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>48904</v>
+        <v>48519</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>53236</v>
+        <v>54721</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>107889</v>
+        <v>107594</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>72776</v>
+        <v>71065</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>73615</v>
+        <v>73340</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>162115</v>
+        <v>164002</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>38111</v>
+        <v>37639</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33609</v>
+        <v>32658</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>76059</v>
+        <v>77266</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>79764</v>
+        <v>79518</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>84943</v>
+        <v>86906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>136328</v>
+        <v>135576</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>110043</v>
+        <v>110730</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>111064</v>
+        <v>108054</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>202619</v>
+        <v>204050</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23653</v>
+        <v>23056</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20330</v>
+        <v>21226</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>53886</v>
+        <v>53658</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>73559</v>
+        <v>71623</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>69464</v>
+        <v>67209</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>135141</v>
+        <v>135039</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>103992</v>
+        <v>102877</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>95398</v>
+        <v>94704</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>196951</v>
+        <v>195730</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47946</v>
+        <v>46603</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>41287</v>
+        <v>43121</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>82980</v>
+        <v>83994</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>109081</v>
+        <v>111586</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>108538</v>
+        <v>105141</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>170005</v>
+        <v>168807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>149081</v>
+        <v>146058</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>138869</v>
+        <v>137651</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>242085</v>
+        <v>241061</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18483</v>
+        <v>19334</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12794</v>
+        <v>13174</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>38921</v>
+        <v>38630</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>49706</v>
+        <v>50651</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>47454</v>
+        <v>46345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>89288</v>
+        <v>88739</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>75158</v>
+        <v>74725</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>65931</v>
+        <v>65306</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>134395</v>
+        <v>133145</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>42128</v>
+        <v>41494</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32847</v>
+        <v>31750</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66829</v>
+        <v>66406</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>80837</v>
+        <v>80567</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>76668</v>
+        <v>77414</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>122225</v>
+        <v>121452</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>115284</v>
+        <v>113054</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>101759</v>
+        <v>100458</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>177696</v>
+        <v>177712</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24091</v>
+        <v>23454</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22169</v>
+        <v>21923</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>54651</v>
+        <v>53467</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>91755</v>
+        <v>91638</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>83831</v>
+        <v>85110</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>163478</v>
+        <v>163807</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>122176</v>
+        <v>123756</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>115208</v>
+        <v>114036</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>228079</v>
+        <v>226572</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47188</v>
+        <v>48956</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>46311</v>
+        <v>47202</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>82586</v>
+        <v>83850</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>135523</v>
+        <v>133073</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>125322</v>
+        <v>124140</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>205283</v>
+        <v>205792</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>171764</v>
+        <v>172555</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>162888</v>
+        <v>159217</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>275598</v>
+        <v>276613</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>100470</v>
+        <v>101664</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>87174</v>
+        <v>86817</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>219310</v>
+        <v>219764</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>298484</v>
+        <v>296478</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>281508</v>
+        <v>285958</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>527156</v>
+        <v>526640</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>407585</v>
+        <v>411052</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>382532</v>
+        <v>386124</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>762724</v>
+        <v>764156</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>145436</v>
+        <v>146677</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>127739</v>
+        <v>128660</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>276070</v>
+        <v>275125</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>370216</v>
+        <v>369201</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>356520</v>
+        <v>357478</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>596921</v>
+        <v>596512</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>494220</v>
+        <v>495997</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>469086</v>
+        <v>466781</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>853357</v>
+        <v>853744</v>
       </c>
     </row>
     <row r="24">
